--- a/词缀.xlsx
+++ b/词缀.xlsx
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sh</t>
+          <t>st</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -456,7 +456,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>st</t>
+          <t>sh</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -486,7 +486,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>al</t>
+          <t>th</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -496,7 +496,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>th</t>
+          <t>al</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -506,7 +506,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ca</t>
+          <t>fl</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -516,7 +516,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>fl</t>
+          <t>ca</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -536,7 +536,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>pr</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -546,7 +546,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pr</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -576,7 +576,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>cl</t>
+          <t>br</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -586,7 +586,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>bl</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -596,7 +596,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sp</t>
+          <t>cl</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -616,7 +616,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sc</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -626,7 +626,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ma</t>
+          <t>sc</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -636,7 +636,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bl</t>
+          <t>ma</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -646,7 +646,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>br</t>
+          <t>ta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -656,7 +656,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>co</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -666,7 +666,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>dr</t>
+          <t>ap</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -676,7 +676,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>wa</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -686,7 +686,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>li</t>
+          <t>dr</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -696,7 +696,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>po</t>
+          <t>be</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -706,7 +706,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>pa</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -716,7 +716,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pa</t>
+          <t>po</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -726,7 +726,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ap</t>
+          <t>ro</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -736,7 +736,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>wa</t>
+          <t>de</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -746,7 +746,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>li</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -756,7 +756,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>tw</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -776,7 +776,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>fa</t>
+          <t>un</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -786,7 +786,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>me</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -796,7 +796,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>lo</t>
+          <t>fa</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -806,7 +806,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sm</t>
+          <t>la</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -816,7 +816,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>gr</t>
+          <t>do</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -826,7 +826,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -846,7 +846,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -856,7 +856,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -866,7 +866,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>re</t>
+          <t>sn</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -876,7 +876,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>lo</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -886,7 +886,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ru</t>
+          <t>na</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -896,7 +896,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ex</t>
+          <t>ga</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -906,7 +906,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ho</t>
+          <t>ru</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -916,7 +916,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sn</t>
+          <t>gr</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -926,7 +926,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ga</t>
+          <t>ha</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -936,7 +936,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>sm</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -946,7 +946,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ti</t>
+          <t>re</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -956,7 +956,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>tw</t>
+          <t>ho</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -966,7 +966,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>ex</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -976,7 +976,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ha</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -986,7 +986,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>go</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -996,7 +996,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>wh</t>
+          <t>vi</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1006,7 +1006,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>am</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1016,7 +1016,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>te</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1026,7 +1026,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>at</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1036,7 +1036,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>el</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1046,7 +1046,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>vo</t>
+          <t>va</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1056,7 +1056,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>kn</t>
+          <t>fe</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1066,7 +1066,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>sa</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1076,7 +1076,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ul</t>
+          <t>wo</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1086,7 +1086,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>va</t>
+          <t>pe</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1096,7 +1096,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1106,7 +1106,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>am</t>
+          <t>kn</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1116,7 +1116,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>as</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1126,7 +1126,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1136,7 +1136,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>ad</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1146,7 +1146,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>fe</t>
+          <t>wh</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1156,7 +1156,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>us</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1166,7 +1166,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>pe</t>
+          <t>ul</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1176,7 +1176,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>le</t>
+          <t>pl</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1186,7 +1186,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>so</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1196,7 +1196,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>bo</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1206,7 +1206,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>vi</t>
+          <t>le</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1216,7 +1216,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>us</t>
+          <t>to</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1226,7 +1226,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>wo</t>
+          <t>vo</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1236,7 +1236,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>aw</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1246,7 +1246,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>im</t>
+          <t>it</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1256,7 +1256,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ol</t>
+          <t>an</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1266,7 +1266,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>rh</t>
+          <t>kh</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1276,7 +1276,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ag</t>
+          <t>ah</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1286,7 +1286,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>av</t>
+          <t>ej</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1296,7 +1296,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sq</t>
+          <t>im</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1306,7 +1306,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ah</t>
+          <t>ju</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1316,7 +1316,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>gi</t>
+          <t>on</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1326,7 +1326,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>da</t>
+          <t>ge</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1336,7 +1336,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>mu</t>
+          <t>ny</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1346,7 +1346,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>wr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1356,7 +1356,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ny</t>
+          <t>gi</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1366,7 +1366,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>sk</t>
+          <t>ol</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1376,7 +1376,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>ra</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1386,7 +1386,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>da</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1396,7 +1396,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>su</t>
+          <t>ne</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1406,7 +1406,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1416,7 +1416,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>io</t>
+          <t>ao</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1426,7 +1426,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ri</t>
+          <t>he</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1436,7 +1436,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>eq</t>
+          <t>av</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1446,7 +1446,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ox</t>
+          <t>up</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1456,7 +1456,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ej</t>
+          <t>ax</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1466,7 +1466,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ci</t>
+          <t>cy</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1476,7 +1476,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ze</t>
+          <t>se</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1486,7 +1486,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>ci</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1496,7 +1496,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>fi</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1506,7 +1506,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>yi</t>
+          <t>ze</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1516,7 +1516,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>ot</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1526,7 +1526,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>lu</t>
+          <t>fi</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1536,7 +1536,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>aw</t>
+          <t>bu</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1556,7 +1556,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>wi</t>
+          <t>yo</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1566,7 +1566,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>bu</t>
+          <t>rh</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1576,7 +1576,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ne</t>
+          <t>ab</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1586,7 +1586,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>jo</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1596,7 +1596,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ax</t>
+          <t>ox</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1606,7 +1606,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ph</t>
+          <t>eq</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1616,7 +1616,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>se</t>
+          <t>yi</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1626,7 +1626,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ge</t>
+          <t>ag</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1636,7 +1636,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ju</t>
+          <t>lu</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1646,7 +1646,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>cy</t>
+          <t>pu</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1656,7 +1656,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>fu</t>
+          <t>ri</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1666,7 +1666,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>pu</t>
+          <t>ni</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1676,7 +1676,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>kh</t>
+          <t>fu</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1686,7 +1686,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>he</t>
+          <t>gu</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1696,7 +1696,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ep</t>
+          <t>ph</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1706,7 +1706,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>eg</t>
+          <t>su</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1716,7 +1716,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>sq</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1726,7 +1726,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ni</t>
+          <t>sk</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1736,7 +1736,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>gu</t>
+          <t>wi</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1746,7 +1746,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ra</t>
+          <t>we</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1756,7 +1756,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>yo</t>
+          <t>wr</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1766,7 +1766,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>jo</t>
+          <t>mu</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1776,7 +1776,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>eg</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1786,7 +1786,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ot</t>
+          <t>ep</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1796,7 +1796,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ao</t>
+          <t>io</t>
         </is>
       </c>
       <c r="B138" t="n">

--- a/词缀.xlsx
+++ b/词缀.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,117 +436,117 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>st</t>
+          <t>slump</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ch</t>
+          <t>crank</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sh</t>
+          <t>gorge</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tr</t>
+          <t>query</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mo</t>
+          <t>drink</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>th</t>
+          <t xml:space="preserve">favor </t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>al</t>
+          <t>abbey</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>fl</t>
+          <t>tangy</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ca</t>
+          <t>panic</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>gl</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pr</t>
+          <t>shire</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>proxy</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -556,47 +556,47 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>fo</t>
+          <t>point</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cr</t>
+          <t>robot</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>br</t>
+          <t>prick</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bl</t>
+          <t>wince</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>cl</t>
+          <t>crimp</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -606,57 +606,57 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sl</t>
+          <t>knoll</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sp</t>
+          <t>sugar</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sc</t>
+          <t>whack</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ma</t>
+          <t>mount</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ta</t>
+          <t>perky</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>could</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -666,17 +666,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ap</t>
+          <t>wrung</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>wa</t>
+          <t>light</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -686,87 +686,87 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dr</t>
+          <t>those</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>moist</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>pa</t>
+          <t>shard</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>po</t>
+          <t>pleat</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ro</t>
+          <t>aloft</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>skill</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>li</t>
+          <t>elder</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>tw</t>
+          <t>frame</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>hu</t>
+          <t>humor</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -776,87 +776,87 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>pause</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>ulcer</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>fa</t>
+          <t>ultra</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>robin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>cynic</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aroma</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>qu</t>
+          <t>caulk</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>shake</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>dodge</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -866,107 +866,107 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sn</t>
+          <t>swill</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>lo</t>
+          <t>tacit</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>other</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ga</t>
+          <t>thorn</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ru</t>
+          <t>trove</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>gr</t>
+          <t>bloke</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ha</t>
+          <t>vivid</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>sm</t>
+          <t>spill</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>re</t>
+          <t>chant</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ho</t>
+          <t>choke</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ex</t>
+          <t>rupee</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -976,7 +976,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ti</t>
+          <t>nasty</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -986,57 +986,57 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>mourn</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>vi</t>
+          <t>ahead</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>am</t>
+          <t>brine</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>cloth</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>hoard</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>sweet</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1046,37 +1046,37 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>va</t>
+          <t>month</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>fe</t>
+          <t>lapse</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>watch</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>wo</t>
+          <t>today</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1086,27 +1086,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>pe</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>smelt</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>kn</t>
+          <t>tease</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1116,27 +1116,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>cater</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>movie</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>saute</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1146,237 +1146,237 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>wh</t>
+          <t>allow</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>us</t>
+          <t>renew</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ul</t>
+          <t>their</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>pl</t>
+          <t>slosh</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>purge</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>bo</t>
+          <t>chest</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>le</t>
+          <t>depot</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>epoxy</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>vo</t>
+          <t>nymph</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>aw</t>
+          <t>found</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>shall</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>stove</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>kh</t>
+          <t>lowly</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ah</t>
+          <t>snout</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ej</t>
+          <t>trope</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>im</t>
+          <t>fewer</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ju</t>
+          <t>shawl</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>natal</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ge</t>
+          <t>comma</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ny</t>
+          <t>foray</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>scare</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>gi</t>
+          <t>stair</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ol</t>
+          <t>black</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ra</t>
+          <t>squad</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1386,97 +1386,97 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>da</t>
+          <t>royal</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ne</t>
+          <t>chunk</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>mince</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ao</t>
+          <t>shame</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>he</t>
+          <t>cheek</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>av</t>
+          <t>ample</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>flair</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ax</t>
+          <t>foyer</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>cy</t>
+          <t>cargo</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>se</t>
+          <t>oxide</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1486,17 +1486,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ci</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>olive</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1506,27 +1506,27 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ze</t>
+          <t>inert</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ot</t>
+          <t>askew</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>fi</t>
+          <t>heist</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1536,17 +1536,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>bu</t>
+          <t>shown</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ir</t>
+          <t>zesty</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1556,117 +1556,117 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>yo</t>
+          <t>tash</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>rh</t>
+          <t>larva</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>forgo</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>jo</t>
+          <t>story</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ox</t>
+          <t>hairy</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>eq</t>
+          <t>train</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>yi</t>
+          <t>homer</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ag</t>
+          <t>badge</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>lu</t>
+          <t>midst</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>pu</t>
+          <t>canny</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ri</t>
+          <t>shine</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ni</t>
+          <t>gecko</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1676,47 +1676,47 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>fu</t>
+          <t>farce</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>gu</t>
+          <t>slung</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ph</t>
+          <t>tipsy</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>su</t>
+          <t>metal</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>sq</t>
+          <t>yield</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1726,81 +1726,2301 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>sk</t>
+          <t>delve</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>wi</t>
+          <t>being</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>scour</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>wr</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>mu</t>
+          <t>gamer</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>eg</t>
+          <t>scrap</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ep</t>
+          <t>money</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>io</t>
+          <t>hinge</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>album</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>vouch</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>tiara</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>crept</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>bayou</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>atoll</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>manor</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>creak</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>showy</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>peach</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>froth</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>depth</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>gloom</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>flood</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>girth</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>piety</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>goose</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>donor</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>atone</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>primo</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>apron</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>blown</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>cacao</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>loser</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>gloat</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>awful</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>brink</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>smite</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>beady</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>rusty</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>retro</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>droll</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>gawky</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>hutch</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>pinto</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>egret</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>lilac</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>sever</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>fluff</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>agape</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>voice</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>stead</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>berth</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>madam</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>bland</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>liver</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>wedge</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>roomy</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>wacky</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>flock</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>trite</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>aphid</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>tryst</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>midge</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>elope</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>cinch</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>motto</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>stomp</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>upset</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>bluff</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>cramp</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>quart</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>coyly</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>youth</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>rhyme</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>buggy</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>alien</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>smear</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>unfit</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>patty</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>cling</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>glean</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>hunky</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>khaki</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>poker</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>gruel</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>twice</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>twang</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>shrug</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>treat</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>waste</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>merit</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>woven</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>needy</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>clown</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>irony</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ruder</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>gauze</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>chief</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>onset</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>prize</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>fungi</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>charm</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>gully</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>inter</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>whoop</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>taunt</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>leery</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>theme</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>lofty</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>tibia</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>booze</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>thyme</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>doubt</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>parer</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>chute</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>stick</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>trice</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>alike</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>recap</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>saint</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>glory</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>grate</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>admit</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>brisk</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>soggy</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>usurp</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>scald</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>scorn</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>leave</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>twine</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>sting</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>bough</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>marxh</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>sloth</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>dandy</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>vigor</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>howdy</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>enjoy</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>ionic</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>equal</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>floor</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>spade</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>stein</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>exist</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>quirk</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>denim</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>grove</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>spiel</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>mummy</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>fault</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>foggy</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>flout</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>carry</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>sneak</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>libel</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>waltz</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>aptly</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>piney</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>inept</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>aloud</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>dream</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>stale</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>begin</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>spell</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>rainy</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>unite</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>medal</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>valet</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>inane</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>maple</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>snarl</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>baker</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>there</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>glyph</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>avert</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>brave</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>axiom</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>prime</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>drive</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>feast</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>itchy</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>clen</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>tepid</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>undue</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>eject</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>chafe</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>torso</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>adore</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>woken</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>amber</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>joust</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>infer</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>braid</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>knock</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>naïve</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>apply</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>spoke</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>usual</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>rival</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>probe</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>chord</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>taper</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>slate</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>third</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>lunar</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>excel</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>aorta</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>poise</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>extra</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>condo</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>impel</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>havoc</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>molar</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>manly</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/词缀.xlsx
+++ b/词缀.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,3587 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>crank</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gorge</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>drink</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">favor </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>abbey</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>tangy</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>panic</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>solar</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>shire</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>proxy</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>point</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>robot</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>prick</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>wince</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>crimp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>knoll</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sugar</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>whack</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>mount</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>perky</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>wrung</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>those</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>moist</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>shard</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>pleat</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>aloft</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>skill</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>elder</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>frame</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>humor</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ulcer</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ultra</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>robin</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>cynic</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>aroma</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>caulk</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>dodge</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>swill</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>tacit</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>thorn</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>trove</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>bloke</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>vivid</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>spill</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>chant</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>choke</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>rupee</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>nasty</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>mourn</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ahead</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>brine</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>cloth</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>hoard</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>sweet</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>lapse</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>watch</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>today</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>smelt</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>tease</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>cater</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>movie</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>saute</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>allow</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>renew</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>slosh</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>purge</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>depot</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>epoxy</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>nymph</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>found</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>shall</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>stove</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>lowly</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>snout</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>trope</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>fewer</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>shawl</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>natal</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>comma</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>foray</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>scare</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>stair</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>squad</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>royal</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>chunk</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>mince</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>shame</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>cheek</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ample</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>flair</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>foyer</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>cargo</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>oxide</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>olive</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>inert</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>askew</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>heist</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>shown</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>zesty</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>tash</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>larva</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>forgo</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>story</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>hairy</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>train</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>homer</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>badge</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>midst</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>canny</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>shine</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>gecko</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>farce</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>slung</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>tipsy</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>metal</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>delve</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>being</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>scour</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>gamer</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>scrap</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>hinge</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>album</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>vouch</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>tiara</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>crept</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>bayou</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>atoll</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>manor</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>creak</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>showy</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>peach</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>froth</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>depth</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>gloom</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>flood</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>girth</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>piety</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>goose</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>donor</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>atone</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>primo</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>apron</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>blown</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>cacao</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>loser</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>gloat</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>awful</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>brink</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>smite</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>beady</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>rusty</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>retro</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>droll</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>gawky</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>hutch</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>pinto</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>egret</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>lilac</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>sever</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>fluff</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>agape</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>voice</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>stead</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>berth</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>madam</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>bland</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>liver</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>wedge</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>roomy</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>wacky</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>flock</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>trite</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>aphid</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>tryst</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>midge</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>elope</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>cinch</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>motto</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>stomp</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>upset</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>bluff</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>cramp</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>quart</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>coyly</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>youth</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>rhyme</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>buggy</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>alien</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>smear</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>unfit</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>patty</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>cling</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>glean</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>hunky</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>khaki</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>poker</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>gruel</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>twice</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>twang</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>shrug</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>treat</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>waste</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>merit</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>woven</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>needy</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>clown</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>irony</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ruder</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>gauze</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>chief</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>onset</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>prize</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>fungi</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>charm</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>gully</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>inter</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>whoop</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>taunt</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>leery</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>theme</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>lofty</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>tibia</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>booze</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>thyme</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>doubt</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>parer</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>chute</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>stick</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>trice</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>alike</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>recap</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>saint</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>glory</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>grate</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>admit</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>brisk</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>soggy</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>usurp</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>scald</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>scorn</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>leave</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>twine</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>sting</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>bough</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>marxh</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>sloth</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>dandy</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>vigor</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>howdy</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>enjoy</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>ionic</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>equal</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>floor</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>spade</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>stein</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>exist</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>quirk</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>denim</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>grove</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>spiel</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>mummy</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>fault</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>foggy</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>flout</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>carry</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>sneak</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>libel</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>waltz</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>aptly</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>piney</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>inept</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>aloud</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>dream</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>stale</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>begin</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>spell</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>rainy</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>unite</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>medal</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>valet</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>inane</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>maple</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>snarl</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>baker</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>there</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>glyph</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>avert</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>brave</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>axiom</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>prime</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>drive</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>feast</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>itchy</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>clen</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>tepid</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>undue</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>eject</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>chafe</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>torso</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>adore</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>woken</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>amber</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>joust</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>infer</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>braid</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>knock</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>naive</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>apply</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>spoke</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>usual</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>rival</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>probe</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>chord</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>taper</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>slate</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>third</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>lunar</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>excel</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>aorta</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>poise</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>extra</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>judge</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>condo</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>impel</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>havoc</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>molar</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>manly</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/词缀.xlsx
+++ b/词缀.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44</v>
+        <v>882</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>966</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47</v>
+        <v>875</v>
       </c>
     </row>
     <row r="15">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42</v>
+        <v>818</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>32</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>31</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>43</v>
+        <v>885</v>
       </c>
     </row>
     <row r="24">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>17</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>42</v>
+        <v>514</v>
       </c>
     </row>
     <row r="28">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>49</v>
+        <v>717</v>
       </c>
     </row>
     <row r="30">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45</v>
+        <v>849</v>
       </c>
     </row>
     <row r="32">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>54</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="34">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>44</v>
+        <v>898</v>
       </c>
     </row>
     <row r="38">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>47</v>
+        <v>967</v>
       </c>
     </row>
     <row r="40">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>48</v>
+        <v>684</v>
       </c>
     </row>
     <row r="42">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44">
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>60</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="48">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>47</v>
+        <v>675</v>
       </c>
     </row>
     <row r="49">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>44</v>
+        <v>540</v>
       </c>
     </row>
     <row r="50">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>40</v>
+        <v>572</v>
       </c>
     </row>
     <row r="51">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>22</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>25</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>54</v>
+        <v>762</v>
       </c>
     </row>
     <row r="54">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>42</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>43</v>
+        <v>637</v>
       </c>
     </row>
     <row r="57">
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>31</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>32</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>58</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="60">
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>50</v>
+        <v>786</v>
       </c>
     </row>
     <row r="61">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>37</v>
+        <v>507</v>
       </c>
     </row>
     <row r="62">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>20</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>44</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>38</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65">
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>39</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>33</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>48</v>
+        <v>594</v>
       </c>
     </row>
     <row r="70">
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>66</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="71">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>26</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72">
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>29</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>59</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="74">
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>35</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>37</v>
+        <v>417</v>
       </c>
     </row>
     <row r="76">
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>42</v>
+        <v>626</v>
       </c>
     </row>
     <row r="77">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>49</v>
+        <v>841</v>
       </c>
     </row>
     <row r="79">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>29</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81">
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>19</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>37</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83">
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>56</v>
+        <v>840</v>
       </c>
     </row>
     <row r="84">
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>50</v>
+        <v>778</v>
       </c>
     </row>
     <row r="85">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>38</v>
+        <v>558</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>29</v>
+        <v>279</v>
       </c>
     </row>
     <row r="87">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>38</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>39</v>
+        <v>825</v>
       </c>
     </row>
     <row r="89">
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>31</v>
+        <v>353</v>
       </c>
     </row>
     <row r="90">
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>49</v>
+        <v>705</v>
       </c>
     </row>
     <row r="91">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>22</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92">
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>40</v>
+        <v>530</v>
       </c>
     </row>
     <row r="93">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>48</v>
+        <v>676</v>
       </c>
     </row>
     <row r="94">
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>50</v>
+        <v>746</v>
       </c>
     </row>
     <row r="95">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>33</v>
+        <v>307</v>
       </c>
     </row>
     <row r="96">
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>19</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97">
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>40</v>
+        <v>642</v>
       </c>
     </row>
     <row r="98">
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>39</v>
+        <v>483</v>
       </c>
     </row>
     <row r="99">
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>43</v>
+        <v>827</v>
       </c>
     </row>
     <row r="100">
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>47</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>31</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102">
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>29</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103">
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>38</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>39</v>
+        <v>837</v>
       </c>
     </row>
     <row r="105">
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>39</v>
+        <v>523</v>
       </c>
     </row>
     <row r="106">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>41</v>
+        <v>471</v>
       </c>
     </row>
     <row r="108">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>34</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>73</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="110">
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>24</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111">
@@ -1530,7 +1530,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>39</v>
+        <v>589</v>
       </c>
     </row>
     <row r="112">
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>34</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>34</v>
+        <v>540</v>
       </c>
     </row>
     <row r="114">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>31</v>
+        <v>325</v>
       </c>
     </row>
     <row r="115">
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>37</v>
+        <v>547</v>
       </c>
     </row>
     <row r="116">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>32</v>
+        <v>366</v>
       </c>
     </row>
     <row r="117">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>57</v>
+        <v>937</v>
       </c>
     </row>
     <row r="118">
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>40</v>
+        <v>422</v>
       </c>
     </row>
     <row r="119">
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>61</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="120">
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>59</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="121">
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>26</v>
+        <v>196</v>
       </c>
     </row>
     <row r="122">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>36</v>
+        <v>574</v>
       </c>
     </row>
     <row r="123">
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>30</v>
+        <v>334</v>
       </c>
     </row>
     <row r="124">
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>57</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="125">
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126">
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>31</v>
+        <v>435</v>
       </c>
     </row>
     <row r="127">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>32</v>
+        <v>294</v>
       </c>
     </row>
     <row r="128">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>52</v>
+        <v>750</v>
       </c>
     </row>
     <row r="130">
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>26</v>
+        <v>244</v>
       </c>
     </row>
     <row r="131">
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>35</v>
+        <v>403</v>
       </c>
     </row>
     <row r="132">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>50</v>
+        <v>926</v>
       </c>
     </row>
     <row r="133">
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>29</v>
+        <v>273</v>
       </c>
     </row>
     <row r="134">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>31</v>
+        <v>295</v>
       </c>
     </row>
     <row r="135">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>54</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="136">
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>36</v>
+        <v>378</v>
       </c>
     </row>
     <row r="137">
@@ -1790,7 +1790,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>34</v>
+        <v>334</v>
       </c>
     </row>
     <row r="138">
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>52</v>
+        <v>946</v>
       </c>
     </row>
     <row r="139">
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>27</v>
+        <v>421</v>
       </c>
     </row>
     <row r="140">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>36</v>
+        <v>502</v>
       </c>
     </row>
     <row r="141">
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>32</v>
+        <v>292</v>
       </c>
     </row>
     <row r="142">
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>40</v>
+        <v>586</v>
       </c>
     </row>
     <row r="143">
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>29</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144">
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>22</v>
+        <v>218</v>
       </c>
     </row>
     <row r="145">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>39</v>
+        <v>405</v>
       </c>
     </row>
     <row r="146">
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>43</v>
+        <v>559</v>
       </c>
     </row>
     <row r="147">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>38</v>
+        <v>426</v>
       </c>
     </row>
     <row r="148">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>32</v>
+        <v>330</v>
       </c>
     </row>
     <row r="149">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>47</v>
+        <v>615</v>
       </c>
     </row>
     <row r="150">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>41</v>
+        <v>549</v>
       </c>
     </row>
     <row r="151">
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>34</v>
+        <v>372</v>
       </c>
     </row>
     <row r="152">
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>41</v>
+        <v>575</v>
       </c>
     </row>
     <row r="153">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>38</v>
+        <v>548</v>
       </c>
     </row>
     <row r="154">
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>43</v>
+        <v>479</v>
       </c>
     </row>
     <row r="155">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>34</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156">
@@ -1980,7 +1980,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>28</v>
+        <v>202</v>
       </c>
     </row>
     <row r="157">
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>27</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>44</v>
+        <v>668</v>
       </c>
     </row>
     <row r="159">
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>36</v>
+        <v>420</v>
       </c>
     </row>
     <row r="160">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>44</v>
+        <v>494</v>
       </c>
     </row>
     <row r="161">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>36</v>
+        <v>370</v>
       </c>
     </row>
     <row r="162">
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>42</v>
+        <v>476</v>
       </c>
     </row>
     <row r="163">
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>37</v>
+        <v>539</v>
       </c>
     </row>
     <row r="164">
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>31</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>64</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="166">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>37</v>
+        <v>783</v>
       </c>
     </row>
     <row r="167">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>43</v>
+        <v>655</v>
       </c>
     </row>
     <row r="168">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="169">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>51</v>
+        <v>975</v>
       </c>
     </row>
     <row r="170">
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>31</v>
+        <v>311</v>
       </c>
     </row>
     <row r="171">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>37</v>
+        <v>383</v>
       </c>
     </row>
     <row r="172">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>40</v>
+        <v>592</v>
       </c>
     </row>
     <row r="173">
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>48</v>
+        <v>596</v>
       </c>
     </row>
     <row r="174">
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>35</v>
+        <v>377</v>
       </c>
     </row>
     <row r="175">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="176">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>33</v>
+        <v>379</v>
       </c>
     </row>
     <row r="177">
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>52</v>
+        <v>946</v>
       </c>
     </row>
     <row r="178">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>29</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179">
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>33</v>
+        <v>315</v>
       </c>
     </row>
     <row r="180">
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>53</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="181">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>27</v>
+        <v>247</v>
       </c>
     </row>
     <row r="182">
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="183">
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>26</v>
+        <v>228</v>
       </c>
     </row>
     <row r="184">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>24</v>
+        <v>160</v>
       </c>
     </row>
     <row r="185">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>59</v>
+        <v>957</v>
       </c>
     </row>
     <row r="186">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>59</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="187">
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>28</v>
+        <v>210</v>
       </c>
     </row>
     <row r="188">
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189">
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>37</v>
+        <v>415</v>
       </c>
     </row>
     <row r="190">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>56</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="191">
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="192">
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>31</v>
+        <v>327</v>
       </c>
     </row>
     <row r="193">
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>24</v>
+        <v>154</v>
       </c>
     </row>
     <row r="194">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>40</v>
+        <v>570</v>
       </c>
     </row>
     <row r="195">
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>37</v>
+        <v>385</v>
       </c>
     </row>
     <row r="196">
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>48</v>
+        <v>594</v>
       </c>
     </row>
     <row r="197">
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>30</v>
+        <v>246</v>
       </c>
     </row>
     <row r="198">
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>42</v>
+        <v>670</v>
       </c>
     </row>
     <row r="199">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>27</v>
+        <v>195</v>
       </c>
     </row>
     <row r="200">
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>47</v>
+        <v>913</v>
       </c>
     </row>
     <row r="201">
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>46</v>
+        <v>700</v>
       </c>
     </row>
     <row r="202">
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>49</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="203">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>30</v>
+        <v>268</v>
       </c>
     </row>
     <row r="204">
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>46</v>
+        <v>682</v>
       </c>
     </row>
     <row r="205">
@@ -2470,7 +2470,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>25</v>
+        <v>215</v>
       </c>
     </row>
     <row r="206">
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="207">
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>35</v>
+        <v>345</v>
       </c>
     </row>
     <row r="208">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>34</v>
+        <v>438</v>
       </c>
     </row>
     <row r="209">
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="210">
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>39</v>
+        <v>505</v>
       </c>
     </row>
     <row r="211">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>20</v>
+        <v>188</v>
       </c>
     </row>
     <row r="212">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213">
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>43</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214">
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>49</v>
+        <v>735</v>
       </c>
     </row>
     <row r="215">
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>25</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>26</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>51</v>
+        <v>935</v>
       </c>
     </row>
     <row r="218">
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>43</v>
+        <v>509</v>
       </c>
     </row>
     <row r="219">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>37</v>
+        <v>423</v>
       </c>
     </row>
     <row r="220">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>26</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221">
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>22</v>
+        <v>226</v>
       </c>
     </row>
     <row r="222">
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>49</v>
+        <v>939</v>
       </c>
     </row>
     <row r="223">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>27</v>
+        <v>239</v>
       </c>
     </row>
     <row r="224">
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>23</v>
+        <v>153</v>
       </c>
     </row>
     <row r="225">
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>32</v>
+        <v>330</v>
       </c>
     </row>
     <row r="226">
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>23</v>
+        <v>197</v>
       </c>
     </row>
     <row r="227">
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>51</v>
+        <v>655</v>
       </c>
     </row>
     <row r="228">
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>50</v>
+        <v>786</v>
       </c>
     </row>
     <row r="229">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>64</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="230">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>27</v>
+        <v>247</v>
       </c>
     </row>
     <row r="231">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>25</v>
+        <v>203</v>
       </c>
     </row>
     <row r="232">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>37</v>
+        <v>539</v>
       </c>
     </row>
     <row r="233">
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>37</v>
+        <v>403</v>
       </c>
     </row>
     <row r="234">
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>46</v>
+        <v>900</v>
       </c>
     </row>
     <row r="235">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="236">
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>31</v>
+        <v>375</v>
       </c>
     </row>
     <row r="237">
@@ -2790,7 +2790,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>30</v>
+        <v>284</v>
       </c>
     </row>
     <row r="238">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>26</v>
+        <v>262</v>
       </c>
     </row>
     <row r="239">
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>27</v>
+        <v>257</v>
       </c>
     </row>
     <row r="240">
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>51</v>
+        <v>847</v>
       </c>
     </row>
     <row r="241">
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>25</v>
+        <v>199</v>
       </c>
     </row>
     <row r="242">
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>78</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="243">
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>23</v>
+        <v>183</v>
       </c>
     </row>
     <row r="244">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>37</v>
+        <v>361</v>
       </c>
     </row>
     <row r="245">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>50</v>
+        <v>954</v>
       </c>
     </row>
     <row r="246">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>30</v>
+        <v>284</v>
       </c>
     </row>
     <row r="247">
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>38</v>
+        <v>490</v>
       </c>
     </row>
     <row r="248">
@@ -2900,7 +2900,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>31</v>
+        <v>485</v>
       </c>
     </row>
     <row r="249">
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="250">
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="251">
@@ -2930,7 +2930,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>40</v>
+        <v>622</v>
       </c>
     </row>
     <row r="252">
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>35</v>
+        <v>443</v>
       </c>
     </row>
     <row r="253">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>21</v>
+        <v>223</v>
       </c>
     </row>
     <row r="254">
@@ -2960,7 +2960,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>65</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="255">
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>43</v>
+        <v>559</v>
       </c>
     </row>
     <row r="256">
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>43</v>
+        <v>637</v>
       </c>
     </row>
     <row r="257">
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>41</v>
+        <v>445</v>
       </c>
     </row>
     <row r="258">
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>39</v>
+        <v>563</v>
       </c>
     </row>
     <row r="259">
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>38</v>
+        <v>420</v>
       </c>
     </row>
     <row r="260">
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>47</v>
+        <v>895</v>
       </c>
     </row>
     <row r="261">
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>52</v>
+        <v>830</v>
       </c>
     </row>
     <row r="262">
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>46</v>
+        <v>586</v>
       </c>
     </row>
     <row r="263">
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>24</v>
+        <v>188</v>
       </c>
     </row>
     <row r="264">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>27</v>
+        <v>255</v>
       </c>
     </row>
     <row r="265">
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="266">
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="267">
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>41</v>
+        <v>571</v>
       </c>
     </row>
     <row r="268">
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>31</v>
+        <v>359</v>
       </c>
     </row>
     <row r="269">
@@ -3110,7 +3110,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>41</v>
+        <v>471</v>
       </c>
     </row>
     <row r="270">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>46</v>
+        <v>898</v>
       </c>
     </row>
     <row r="271">
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>64</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="272">
@@ -3140,7 +3140,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>24</v>
+        <v>230</v>
       </c>
     </row>
     <row r="273">
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>28</v>
+        <v>412</v>
       </c>
     </row>
     <row r="274">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>50</v>
+        <v>786</v>
       </c>
     </row>
     <row r="275">
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>28</v>
+        <v>262</v>
       </c>
     </row>
     <row r="276">
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>29</v>
+        <v>339</v>
       </c>
     </row>
     <row r="277">
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>25</v>
+        <v>211</v>
       </c>
     </row>
     <row r="278">
@@ -3200,7 +3200,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="279">
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>41</v>
+        <v>561</v>
       </c>
     </row>
     <row r="280">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>25</v>
+        <v>185</v>
       </c>
     </row>
     <row r="281">
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>30</v>
+        <v>442</v>
       </c>
     </row>
     <row r="282">
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>52</v>
+        <v>828</v>
       </c>
     </row>
     <row r="283">
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>45</v>
+        <v>595</v>
       </c>
     </row>
     <row r="284">
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>27</v>
+        <v>195</v>
       </c>
     </row>
     <row r="285">
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>67</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="286">
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>33</v>
+        <v>527</v>
       </c>
     </row>
     <row r="287">
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>17</v>
+        <v>111</v>
       </c>
     </row>
     <row r="288">
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>26</v>
+        <v>174</v>
       </c>
     </row>
     <row r="289">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>38</v>
+        <v>444</v>
       </c>
     </row>
     <row r="290">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>31</v>
+        <v>279</v>
       </c>
     </row>
     <row r="291">
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="292">
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="293">
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="294">
@@ -3360,7 +3360,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>49</v>
+        <v>735</v>
       </c>
     </row>
     <row r="295">
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>39</v>
+        <v>547</v>
       </c>
     </row>
     <row r="296">
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>34</v>
+        <v>374</v>
       </c>
     </row>
     <row r="297">
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>33</v>
+        <v>335</v>
       </c>
     </row>
     <row r="298">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>30</v>
+        <v>442</v>
       </c>
     </row>
     <row r="299">
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>23</v>
+        <v>187</v>
       </c>
     </row>
     <row r="300">
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>48</v>
+        <v>918</v>
       </c>
     </row>
     <row r="301">
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>49</v>
+        <v>925</v>
       </c>
     </row>
     <row r="302">
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>59</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="303">
@@ -3450,7 +3450,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>34</v>
+        <v>310</v>
       </c>
     </row>
     <row r="304">
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>39</v>
+        <v>445</v>
       </c>
     </row>
     <row r="305">
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>61</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="306">
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>41</v>
+        <v>823</v>
       </c>
     </row>
     <row r="307">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>37</v>
+        <v>375</v>
       </c>
     </row>
     <row r="308">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>54</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="309">
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>41</v>
+        <v>457</v>
       </c>
     </row>
     <row r="310">
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>40</v>
+        <v>594</v>
       </c>
     </row>
     <row r="311">
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>42</v>
+        <v>578</v>
       </c>
     </row>
     <row r="312">
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>59</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="313">
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>32</v>
+        <v>276</v>
       </c>
     </row>
     <row r="314">
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>29</v>
+        <v>407</v>
       </c>
     </row>
     <row r="315">
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>45</v>
+        <v>899</v>
       </c>
     </row>
     <row r="316">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>65</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="317">
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>19</v>
+        <v>111</v>
       </c>
     </row>
     <row r="318">
@@ -3600,7 +3600,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>52</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="319">
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>37</v>
+        <v>415</v>
       </c>
     </row>
     <row r="320">
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="321">
@@ -3630,7 +3630,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>39</v>
+        <v>439</v>
       </c>
     </row>
     <row r="322">
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>37</v>
+        <v>417</v>
       </c>
     </row>
     <row r="323">
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>49</v>
+        <v>777</v>
       </c>
     </row>
     <row r="324">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>33</v>
+        <v>395</v>
       </c>
     </row>
     <row r="325">
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="326">
@@ -3680,7 +3680,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>28</v>
+        <v>322</v>
       </c>
     </row>
     <row r="327">
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>34</v>
+        <v>332</v>
       </c>
     </row>
     <row r="328">
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>21</v>
+        <v>179</v>
       </c>
     </row>
     <row r="329">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>32</v>
+        <v>526</v>
       </c>
     </row>
     <row r="330">
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331">
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>36</v>
+        <v>502</v>
       </c>
     </row>
     <row r="332">
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>31</v>
+        <v>399</v>
       </c>
     </row>
     <row r="333">
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>44</v>
+        <v>564</v>
       </c>
     </row>
     <row r="334">
@@ -3760,7 +3760,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>23</v>
+        <v>159</v>
       </c>
     </row>
     <row r="335">
@@ -3770,7 +3770,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>46</v>
+        <v>930</v>
       </c>
     </row>
     <row r="336">
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>44</v>
+        <v>720</v>
       </c>
     </row>
     <row r="337">
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>61</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="338">
@@ -3800,7 +3800,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>36</v>
+        <v>366</v>
       </c>
     </row>
     <row r="339">
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>19</v>
+        <v>109</v>
       </c>
     </row>
     <row r="340">
@@ -3820,7 +3820,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>34</v>
+        <v>322</v>
       </c>
     </row>
     <row r="341">
@@ -3830,7 +3830,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>25</v>
+        <v>199</v>
       </c>
     </row>
     <row r="342">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>26</v>
+        <v>180</v>
       </c>
     </row>
     <row r="343">
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>33</v>
+        <v>461</v>
       </c>
     </row>
     <row r="344">
@@ -3860,7 +3860,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>44</v>
+        <v>648</v>
       </c>
     </row>
     <row r="345">
@@ -3870,7 +3870,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>34</v>
+        <v>364</v>
       </c>
     </row>
     <row r="346">
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>49</v>
+        <v>715</v>
       </c>
     </row>
     <row r="347">
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>58</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="348">
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>45</v>
+        <v>559</v>
       </c>
     </row>
     <row r="349">
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>35</v>
+        <v>389</v>
       </c>
     </row>
     <row r="350">
@@ -3920,7 +3920,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>42</v>
+        <v>566</v>
       </c>
     </row>
     <row r="351">
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>25</v>
+        <v>243</v>
       </c>
     </row>
     <row r="352">
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>35</v>
+        <v>429</v>
       </c>
     </row>
     <row r="353">
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>27</v>
+        <v>211</v>
       </c>
     </row>
     <row r="354">
@@ -3960,7 +3960,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>29</v>
+        <v>327</v>
       </c>
     </row>
     <row r="355">
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>19</v>
+        <v>123</v>
       </c>
     </row>
     <row r="356">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>25</v>
+        <v>167</v>
       </c>
     </row>
     <row r="357">
@@ -3990,7 +3990,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>34</v>
+        <v>324</v>
       </c>
     </row>
     <row r="358">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>27</v>
+        <v>253</v>
       </c>
     </row>
     <row r="359">
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>48</v>
+        <v>666</v>
       </c>
     </row>
     <row r="360">
@@ -4020,7 +4020,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>29</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
